--- a/CidadesCEP.xlsx
+++ b/CidadesCEP.xlsx
@@ -1,42 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fatecspgov-my.sharepoint.com/personal/amanda_costa34_fatec_sp_gov_br/Documents/Repositórios GitHub 2/Projeto1-ExtracaoDadosCidades/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="104_{CDD9C797-4688-42CA-A40B-C4FF3E7FEC7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7F146703-F4B1-4AC6-8AB7-294A5A0C0E8E}"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
-    <x:workbookView xWindow="20370" yWindow="-1290" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="0" xr2:uid="{CEA30AFD-CD07-4722-BC41-0252BFABFE2F}"/>
+    <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <x:sheet name="Planilha1" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="191029"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
+  <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <x:si>
     <x:t>NOME</x:t>
   </x:si>
@@ -630,23 +608,28 @@
   </x:si>
   <x:si>
     <x:t>37200-001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liberdade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37350-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Luminárias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37240-000</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
+  <x:fonts count="1">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -664,22 +647,30 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -688,20 +679,11 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -711,44 +693,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -775,32 +757,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -827,24 +791,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -856,986 +802,991 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{AA0BD971-7E57-4DF1-BE59-320DF1E8252F}" mc:Ignorable="x14ac xr xr2 xr3">
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:B101"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="1" t="s">
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
+      <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="1" t="s">
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="1" t="s">
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B3" s="1" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="1" t="s">
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B4" s="1" t="s">
+      <x:c r="B4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="1" t="s">
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B5" s="1" t="s">
+      <x:c r="B5" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="1" t="s">
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B6" s="1" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="1" t="s">
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B8" s="1" t="s">
+      <x:c r="B7" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="1" t="s">
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B9" s="1" t="s">
+      <x:c r="B8" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="1" t="s">
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B10" s="1" t="s">
+      <x:c r="B9" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="1" t="s">
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B11" s="1" t="s">
+      <x:c r="B10" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A12" s="1" t="s">
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B12" s="1" t="s">
+      <x:c r="B11" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A13" s="1" t="s">
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B13" s="1" t="s">
+      <x:c r="B12" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A14" s="1" t="s">
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B14" s="1" t="s">
+      <x:c r="B13" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A15" s="1" t="s">
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B15" s="1" t="s">
+      <x:c r="B14" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A16" s="1" t="s">
+    <x:row r="15" spans="1:2">
+      <x:c r="A15" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B16" s="1" t="s">
+      <x:c r="B15" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A17" s="1" t="s">
+    <x:row r="16" spans="1:2">
+      <x:c r="A16" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B17" s="1" t="s">
+      <x:c r="B16" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A18" s="1" t="s">
+    <x:row r="17" spans="1:2">
+      <x:c r="A17" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B18" s="1" t="s">
+      <x:c r="B17" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A19" s="1" t="s">
+    <x:row r="18" spans="1:2">
+      <x:c r="A18" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B19" s="1" t="s">
+      <x:c r="B18" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A20" s="1" t="s">
+    <x:row r="19" spans="1:2">
+      <x:c r="A19" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B20" s="1" t="s">
+      <x:c r="B19" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A21" s="1" t="s">
+    <x:row r="20" spans="1:2">
+      <x:c r="A20" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B21" s="1" t="s">
+      <x:c r="B20" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A22" s="1" t="s">
+    <x:row r="21" spans="1:2">
+      <x:c r="A21" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B22" s="1" t="s">
+      <x:c r="B21" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A23" s="1" t="s">
+    <x:row r="22" spans="1:2">
+      <x:c r="A22" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="B23" s="1" t="s">
+      <x:c r="B22" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A24" s="1" t="s">
+    <x:row r="23" spans="1:2">
+      <x:c r="A23" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B24" s="1" t="s">
+      <x:c r="B23" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A25" s="1" t="s">
+    <x:row r="24" spans="1:2">
+      <x:c r="A24" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="B25" s="1" t="s">
+      <x:c r="B24" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A26" s="1" t="s">
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="B26" s="1" t="s">
+      <x:c r="B25" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A27" s="1" t="s">
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B27" s="1" t="s">
+      <x:c r="B26" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A28" s="1" t="s">
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="B28" s="1" t="s">
+      <x:c r="B27" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A29" s="1" t="s">
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="B29" s="1" t="s">
+      <x:c r="B28" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A30" s="1" t="s">
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="B30" s="1" t="s">
+      <x:c r="B29" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A31" s="1" t="s">
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="B31" s="1" t="s">
+      <x:c r="B30" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A32" s="1" t="s">
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="B32" s="1" t="s">
+      <x:c r="B31" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A33" s="1" t="s">
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B33" s="1" t="s">
+      <x:c r="B32" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A34" s="1" t="s">
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B34" s="1" t="s">
+      <x:c r="B33" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A35" s="1" t="s">
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="B35" s="1" t="s">
+      <x:c r="B34" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A36" s="1" t="s">
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="B36" s="1" t="s">
+      <x:c r="B35" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A37" s="1" t="s">
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="B37" s="1" t="s">
+      <x:c r="B36" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A38" s="1" t="s">
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="B38" s="1" t="s">
+      <x:c r="B37" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A39" s="1" t="s">
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="B39" s="1" t="s">
+      <x:c r="B38" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A40" s="1" t="s">
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="B40" s="1" t="s">
+      <x:c r="B39" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A41" s="1" t="s">
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="B41" s="1" t="s">
+      <x:c r="B40" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A42" s="1" t="s">
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="B42" s="1" t="s">
+      <x:c r="B41" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A43" s="1" t="s">
+    <x:row r="42" spans="1:2">
+      <x:c r="A42" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="B43" s="1" t="s">
+      <x:c r="B42" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A44" s="1" t="s">
+    <x:row r="43" spans="1:2">
+      <x:c r="A43" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="B44" s="1" t="s">
+      <x:c r="B43" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A45" s="1" t="s">
+    <x:row r="44" spans="1:2">
+      <x:c r="A44" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="B45" s="1" t="s">
+      <x:c r="B44" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A46" s="1" t="s">
+    <x:row r="45" spans="1:2">
+      <x:c r="A45" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="B46" s="1" t="s">
+      <x:c r="B45" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A47" s="1" t="s">
+    <x:row r="46" spans="1:2">
+      <x:c r="A46" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="B47" s="1" t="s">
+      <x:c r="B46" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A48" s="1" t="s">
+    <x:row r="47" spans="1:2">
+      <x:c r="A47" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="B48" s="1" t="s">
+      <x:c r="B47" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A49" s="1" t="s">
+    <x:row r="48" spans="1:2">
+      <x:c r="A48" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="B49" s="1" t="s">
+      <x:c r="B48" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A50" s="1" t="s">
+    <x:row r="49" spans="1:2">
+      <x:c r="A49" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="B50" s="1" t="s">
+      <x:c r="B49" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A51" s="1" t="s">
+    <x:row r="50" spans="1:2">
+      <x:c r="A50" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="B51" s="1" t="s">
+      <x:c r="B50" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A52" s="1" t="s">
+    <x:row r="51" spans="1:2">
+      <x:c r="A51" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B52" s="1" t="s">
+      <x:c r="B51" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A53" s="1" t="s">
+    <x:row r="52" spans="1:2">
+      <x:c r="A52" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="B53" s="1" t="s">
+      <x:c r="B52" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A54" s="1" t="s">
+    <x:row r="53" spans="1:2">
+      <x:c r="A53" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B54" s="1" t="s">
+      <x:c r="B53" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A55" s="1" t="s">
+    <x:row r="54" spans="1:2">
+      <x:c r="A54" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="B55" s="1" t="s">
+      <x:c r="B54" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A56" s="1" t="s">
+    <x:row r="55" spans="1:2">
+      <x:c r="A55" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="B56" s="1" t="s">
+      <x:c r="B55" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A57" s="1" t="s">
+    <x:row r="56" spans="1:2">
+      <x:c r="A56" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="B57" s="1" t="s">
+      <x:c r="B56" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A58" s="1" t="s">
+    <x:row r="57" spans="1:2">
+      <x:c r="A57" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="B58" s="1" t="s">
+      <x:c r="B57" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A59" s="1" t="s">
+    <x:row r="58" spans="1:2">
+      <x:c r="A58" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="B59" s="1" t="s">
+      <x:c r="B58" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A60" s="1" t="s">
+    <x:row r="59" spans="1:2">
+      <x:c r="A59" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="B60" s="1" t="s">
+      <x:c r="B59" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A61" s="1" t="s">
+    <x:row r="60" spans="1:2">
+      <x:c r="A60" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="B61" s="1" t="s">
+      <x:c r="B60" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A62" s="1" t="s">
+    <x:row r="61" spans="1:2">
+      <x:c r="A61" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="B62" s="1" t="s">
+      <x:c r="B61" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A63" s="1" t="s">
+    <x:row r="62" spans="1:2">
+      <x:c r="A62" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="B63" s="1" t="s">
+      <x:c r="B62" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A64" s="1" t="s">
+    <x:row r="63" spans="1:2">
+      <x:c r="A63" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="B64" s="1" t="s">
+      <x:c r="B63" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A65" s="1" t="s">
+    <x:row r="64" spans="1:2">
+      <x:c r="A64" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="B65" s="1" t="s">
+      <x:c r="B64" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A66" s="1" t="s">
+    <x:row r="65" spans="1:2">
+      <x:c r="A65" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="B66" s="1" t="s">
+      <x:c r="B65" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A67" s="1" t="s">
+    <x:row r="66" spans="1:2">
+      <x:c r="A66" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="B67" s="1" t="s">
+      <x:c r="B66" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A68" s="1" t="s">
+    <x:row r="67" spans="1:2">
+      <x:c r="A67" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="B68" s="1" t="s">
+      <x:c r="B67" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A69" s="1" t="s">
+    <x:row r="68" spans="1:2">
+      <x:c r="A68" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="B69" s="1" t="s">
+      <x:c r="B68" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A70" s="1" t="s">
+    <x:row r="69" spans="1:2">
+      <x:c r="A69" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="B70" s="1" t="s">
+      <x:c r="B69" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A71" s="1" t="s">
+    <x:row r="70" spans="1:2">
+      <x:c r="A70" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="B71" s="1" t="s">
+      <x:c r="B70" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A72" s="1" t="s">
+    <x:row r="71" spans="1:2">
+      <x:c r="A71" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="B72" s="1" t="s">
+      <x:c r="B71" s="0" t="s">
         <x:v>141</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A73" s="1" t="s">
+    <x:row r="72" spans="1:2">
+      <x:c r="A72" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="B73" s="1" t="s">
+      <x:c r="B72" s="0" t="s">
         <x:v>143</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A74" s="1" t="s">
+    <x:row r="73" spans="1:2">
+      <x:c r="A73" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="B74" s="1" t="s">
+      <x:c r="B73" s="0" t="s">
         <x:v>145</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A75" s="1" t="s">
+    <x:row r="74" spans="1:2">
+      <x:c r="A74" s="0" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="B75" s="1" t="s">
+      <x:c r="B74" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A76" s="1" t="s">
+    <x:row r="75" spans="1:2">
+      <x:c r="A75" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="B76" s="1" t="s">
+      <x:c r="B75" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A77" s="1" t="s">
+    <x:row r="76" spans="1:2">
+      <x:c r="A76" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="B77" s="1" t="s">
+      <x:c r="B76" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A78" s="1" t="s">
+    <x:row r="77" spans="1:2">
+      <x:c r="A77" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="B78" s="1" t="s">
+      <x:c r="B77" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A79" s="1" t="s">
+    <x:row r="78" spans="1:2">
+      <x:c r="A78" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="B79" s="1" t="s">
+      <x:c r="B78" s="0" t="s">
         <x:v>155</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A80" s="1" t="s">
+    <x:row r="79" spans="1:2">
+      <x:c r="A79" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="B80" s="1" t="s">
+      <x:c r="B79" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A81" s="1" t="s">
+    <x:row r="80" spans="1:2">
+      <x:c r="A80" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="B81" s="1" t="s">
+      <x:c r="B80" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A82" s="1" t="s">
+    <x:row r="81" spans="1:2">
+      <x:c r="A81" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="B82" s="1" t="s">
+      <x:c r="B81" s="0" t="s">
         <x:v>161</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A83" s="1" t="s">
+    <x:row r="82" spans="1:2">
+      <x:c r="A82" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="B83" s="1" t="s">
+      <x:c r="B82" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A84" s="1" t="s">
+    <x:row r="83" spans="1:2">
+      <x:c r="A83" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="B84" s="1" t="s">
+      <x:c r="B83" s="0" t="s">
         <x:v>165</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A85" s="1" t="s">
+    <x:row r="84" spans="1:2">
+      <x:c r="A84" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="B85" s="1" t="s">
+      <x:c r="B84" s="0" t="s">
         <x:v>167</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A86" s="1" t="s">
+    <x:row r="85" spans="1:2">
+      <x:c r="A85" s="0" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="B86" s="1" t="s">
+      <x:c r="B85" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A87" s="1" t="s">
+    <x:row r="86" spans="1:2">
+      <x:c r="A86" s="0" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="B87" s="1" t="s">
+      <x:c r="B86" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A88" s="1" t="s">
+    <x:row r="87" spans="1:2">
+      <x:c r="A87" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="B88" s="1" t="s">
+      <x:c r="B87" s="0" t="s">
         <x:v>173</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A89" s="1" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="B89" s="1" t="s">
-        <x:v>173</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A90" s="1" t="s">
+    <x:row r="88" spans="1:2">
+      <x:c r="A88" s="0" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B90" s="1" t="s">
+      <x:c r="B88" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A91" s="1" t="s">
+    <x:row r="89" spans="1:2">
+      <x:c r="A89" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="B91" s="1" t="s">
+      <x:c r="B89" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A92" s="1" t="s">
+    <x:row r="90" spans="1:2">
+      <x:c r="A90" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="B92" s="1" t="s">
+      <x:c r="B90" s="0" t="s">
         <x:v>179</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A93" s="1" t="s">
+    <x:row r="91" spans="1:2">
+      <x:c r="A91" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="B93" s="1" t="s">
+      <x:c r="B91" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A94" s="1" t="s">
+    <x:row r="92" spans="1:2">
+      <x:c r="A92" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="B94" s="1" t="s">
+      <x:c r="B92" s="0" t="s">
         <x:v>183</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A95" s="1" t="s">
+    <x:row r="93" spans="1:2">
+      <x:c r="A93" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="B95" s="1" t="s">
+      <x:c r="B93" s="0" t="s">
         <x:v>185</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A96" s="1" t="s">
+    <x:row r="94" spans="1:2">
+      <x:c r="A94" s="0" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="B96" s="1" t="s">
+      <x:c r="B94" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A97" s="1" t="s">
+    <x:row r="95" spans="1:2">
+      <x:c r="A95" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="B97" s="1" t="s">
+      <x:c r="B95" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A98" s="1" t="s">
+    <x:row r="96" spans="1:2">
+      <x:c r="A96" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="B98" s="1" t="s">
+      <x:c r="B96" s="0" t="s">
         <x:v>191</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A99" s="1" t="s">
+    <x:row r="97" spans="1:2">
+      <x:c r="A97" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="B99" s="1" t="s">
+      <x:c r="B97" s="0" t="s">
         <x:v>193</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A100" s="1" t="s">
+    <x:row r="98" spans="1:2">
+      <x:c r="A98" s="0" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="B100" s="1" t="s">
+      <x:c r="B98" s="0" t="s">
         <x:v>195</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A101" s="1" t="s">
+    <x:row r="99" spans="1:2">
+      <x:c r="A99" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="B101" s="1" t="s">
+      <x:c r="B99" s="0" t="s">
         <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:2">
+      <x:c r="A100" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:2">
+      <x:c r="A101" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>201</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{BDDBE4D1-3AD6-4444-A1BC-CE3230DFFA16}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:sheetData/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
